--- a/data/2017년 상반기 지역별고용조사 설계서 및 코드집(mdis제공용).xlsx
+++ b/data/2017년 상반기 지역별고용조사 설계서 및 코드집(mdis제공용).xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="2063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="2062">
   <si>
     <t>작업여건(시간, 보수등) 불만족</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7720,10 +7720,6 @@
   </si>
   <si>
     <t>46</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -9427,6 +9423,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9476,9 +9475,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9877,26 +9873,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="199" t="s">
         <v>2003</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="201" t="s">
         <v>1768</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="80" t="s">
@@ -10964,7 +10960,7 @@
     </row>
     <row r="69" spans="1:7" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="117"/>
-      <c r="B69" s="212" t="s">
+      <c r="B69" s="195" t="s">
         <v>2058</v>
       </c>
       <c r="C69" s="118" t="s">
@@ -12422,7 +12418,7 @@
         <v>1954</v>
       </c>
       <c r="D163" s="97"/>
-      <c r="E163" s="201" t="s">
+      <c r="E163" s="202" t="s">
         <v>1955</v>
       </c>
       <c r="F163" s="98">
@@ -12442,7 +12438,7 @@
         <v>1956</v>
       </c>
       <c r="D164" s="108"/>
-      <c r="E164" s="202"/>
+      <c r="E164" s="203"/>
       <c r="F164" s="109">
         <f>F163+G163</f>
         <v>98</v>
@@ -12461,48 +12457,48 @@
       <c r="G165" s="5"/>
     </row>
     <row r="166" spans="1:7" s="66" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="203" t="s">
+      <c r="A166" s="204" t="s">
         <v>2008</v>
       </c>
-      <c r="B166" s="203"/>
-      <c r="C166" s="204"/>
-      <c r="D166" s="204"/>
-      <c r="E166" s="204"/>
-      <c r="F166" s="204"/>
-      <c r="G166" s="204"/>
+      <c r="B166" s="204"/>
+      <c r="C166" s="205"/>
+      <c r="D166" s="205"/>
+      <c r="E166" s="205"/>
+      <c r="F166" s="205"/>
+      <c r="G166" s="205"/>
     </row>
     <row r="167" spans="1:7" s="66" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="205" t="s">
+      <c r="A167" s="206" t="s">
         <v>1957</v>
       </c>
-      <c r="B167" s="205"/>
-      <c r="C167" s="206"/>
-      <c r="D167" s="206"/>
-      <c r="E167" s="206"/>
-      <c r="F167" s="206"/>
-      <c r="G167" s="206"/>
+      <c r="B167" s="206"/>
+      <c r="C167" s="207"/>
+      <c r="D167" s="207"/>
+      <c r="E167" s="207"/>
+      <c r="F167" s="207"/>
+      <c r="G167" s="207"/>
     </row>
     <row r="168" spans="1:7" s="66" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="195" t="s">
+      <c r="A168" s="196" t="s">
         <v>1958</v>
       </c>
-      <c r="B168" s="195"/>
-      <c r="C168" s="195"/>
-      <c r="D168" s="195"/>
-      <c r="E168" s="195"/>
-      <c r="F168" s="195"/>
-      <c r="G168" s="195"/>
+      <c r="B168" s="196"/>
+      <c r="C168" s="196"/>
+      <c r="D168" s="196"/>
+      <c r="E168" s="196"/>
+      <c r="F168" s="196"/>
+      <c r="G168" s="196"/>
     </row>
     <row r="169" spans="1:7" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="196" t="s">
+      <c r="A169" s="197" t="s">
         <v>1959</v>
       </c>
-      <c r="B169" s="196"/>
-      <c r="C169" s="197"/>
-      <c r="D169" s="197"/>
-      <c r="E169" s="197"/>
-      <c r="F169" s="197"/>
-      <c r="G169" s="197"/>
+      <c r="B169" s="197"/>
+      <c r="C169" s="198"/>
+      <c r="D169" s="198"/>
+      <c r="E169" s="198"/>
+      <c r="F169" s="198"/>
+      <c r="G169" s="198"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:G164">
@@ -12550,24 +12546,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="199" t="s">
         <v>2004</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
       <c r="F1" s="142"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="201" t="s">
         <v>1670</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
       <c r="F2" s="142"/>
       <c r="G2" s="3"/>
     </row>
@@ -15055,7 +15051,7 @@
         <v>1761</v>
       </c>
       <c r="D161" s="159"/>
-      <c r="E161" s="207" t="s">
+      <c r="E161" s="208" t="s">
         <v>1762</v>
       </c>
       <c r="F161" s="98">
@@ -15075,7 +15071,7 @@
         <v>1763</v>
       </c>
       <c r="D162" s="160"/>
-      <c r="E162" s="208"/>
+      <c r="E162" s="209"/>
       <c r="F162" s="163">
         <f>F161+G161</f>
         <v>92</v>
@@ -15094,48 +15090,48 @@
       <c r="G163" s="5"/>
     </row>
     <row r="164" spans="1:7" s="66" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="203" t="s">
+      <c r="A164" s="204" t="s">
         <v>1764</v>
       </c>
-      <c r="B164" s="203"/>
-      <c r="C164" s="203"/>
-      <c r="D164" s="203"/>
-      <c r="E164" s="203"/>
-      <c r="F164" s="203"/>
-      <c r="G164" s="203"/>
+      <c r="B164" s="204"/>
+      <c r="C164" s="204"/>
+      <c r="D164" s="204"/>
+      <c r="E164" s="204"/>
+      <c r="F164" s="204"/>
+      <c r="G164" s="204"/>
     </row>
     <row r="165" spans="1:7" s="66" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="205" t="s">
+      <c r="A165" s="206" t="s">
         <v>1765</v>
       </c>
-      <c r="B165" s="205"/>
-      <c r="C165" s="205"/>
-      <c r="D165" s="205"/>
-      <c r="E165" s="205"/>
-      <c r="F165" s="205"/>
-      <c r="G165" s="205"/>
+      <c r="B165" s="206"/>
+      <c r="C165" s="206"/>
+      <c r="D165" s="206"/>
+      <c r="E165" s="206"/>
+      <c r="F165" s="206"/>
+      <c r="G165" s="206"/>
     </row>
     <row r="166" spans="1:7" s="66" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="195" t="s">
+      <c r="A166" s="196" t="s">
         <v>1766</v>
       </c>
-      <c r="B166" s="195"/>
-      <c r="C166" s="195"/>
-      <c r="D166" s="195"/>
-      <c r="E166" s="195"/>
-      <c r="F166" s="195"/>
-      <c r="G166" s="195"/>
+      <c r="B166" s="196"/>
+      <c r="C166" s="196"/>
+      <c r="D166" s="196"/>
+      <c r="E166" s="196"/>
+      <c r="F166" s="196"/>
+      <c r="G166" s="196"/>
     </row>
     <row r="167" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="196" t="s">
+      <c r="A167" s="197" t="s">
         <v>1767</v>
       </c>
-      <c r="B167" s="196"/>
-      <c r="C167" s="196"/>
-      <c r="D167" s="196"/>
-      <c r="E167" s="196"/>
-      <c r="F167" s="196"/>
-      <c r="G167" s="196"/>
+      <c r="B167" s="197"/>
+      <c r="C167" s="197"/>
+      <c r="D167" s="197"/>
+      <c r="E167" s="197"/>
+      <c r="F167" s="197"/>
+      <c r="G167" s="197"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:G162">
@@ -15184,12 +15180,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="210" t="s">
         <v>1575</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
@@ -17654,12 +17650,12 @@
       <c r="D167" s="178"/>
     </row>
     <row r="168" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="210" t="s">
+      <c r="A168" s="211" t="s">
         <v>1566</v>
       </c>
-      <c r="B168" s="210"/>
-      <c r="C168" s="210"/>
-      <c r="D168" s="210"/>
+      <c r="B168" s="211"/>
+      <c r="C168" s="211"/>
+      <c r="D168" s="211"/>
     </row>
     <row r="169" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D169" s="64"/>
@@ -18407,8 +18403,8 @@
   <dimension ref="A1:F327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18420,13 +18416,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="212" t="s">
         <v>1576</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
@@ -18786,8 +18782,8 @@
         <v>342</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="36" t="s">
-        <v>2062</v>
+      <c r="C28" s="36">
+        <v>10</v>
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="16" t="s">
@@ -22753,7 +22749,7 @@
   <dimension ref="A1:E214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
@@ -22766,13 +22762,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="212" t="s">
         <v>1577</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">

--- a/data/2017년 상반기 지역별고용조사 설계서 및 코드집(mdis제공용).xlsx
+++ b/data/2017년 상반기 지역별고용조사 설계서 및 코드집(mdis제공용).xlsx
@@ -18403,8 +18403,8 @@
   <dimension ref="A1:F327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="2" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B161" sqref="B161:E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/2017년 상반기 지역별고용조사 설계서 및 코드집(mdis제공용).xlsx
+++ b/data/2017년 상반기 지역별고용조사 설계서 및 코드집(mdis제공용).xlsx
@@ -18400,11 +18400,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B161" sqref="B161:E184"/>
+      <selection pane="bottomLeft" activeCell="D163" sqref="D163:E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18441,7 +18442,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="48" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="48" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="46" t="s">
         <v>1517</v>
       </c>
@@ -18457,7 +18458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
         <v>308</v>
       </c>
@@ -18535,7 +18536,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26" t="s">
         <v>320</v>
       </c>
@@ -18561,7 +18562,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26" t="s">
         <v>323</v>
       </c>
@@ -18600,7 +18601,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26" t="s">
         <v>329</v>
       </c>
@@ -18617,7 +18618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="48" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" s="48" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="49" t="s">
         <v>832</v>
       </c>
@@ -18656,7 +18657,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="27" t="s">
         <v>837</v>
       </c>
@@ -18695,7 +18696,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26" t="s">
         <v>335</v>
       </c>
@@ -18734,7 +18735,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="27" t="s">
         <v>839</v>
       </c>
@@ -18760,7 +18761,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="48" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" s="48" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="46" t="s">
         <v>1520</v>
       </c>
@@ -18777,7 +18778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="28" t="s">
         <v>342</v>
       </c>
@@ -18894,7 +18895,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="28" t="s">
         <v>359</v>
       </c>
@@ -18933,7 +18934,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="28" t="s">
         <v>363</v>
       </c>
@@ -18959,7 +18960,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="28" t="s">
         <v>366</v>
       </c>
@@ -19037,7 +19038,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="28" t="s">
         <v>378</v>
       </c>
@@ -19102,7 +19103,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="28" t="s">
         <v>387</v>
       </c>
@@ -19141,7 +19142,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="28" t="s">
         <v>393</v>
       </c>
@@ -19193,7 +19194,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="28" t="s">
         <v>401</v>
       </c>
@@ -19245,7 +19246,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="28" t="s">
         <v>407</v>
       </c>
@@ -19284,7 +19285,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="28" t="s">
         <v>412</v>
       </c>
@@ -19323,7 +19324,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="28" t="s">
         <v>417</v>
       </c>
@@ -19401,7 +19402,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="28" t="s">
         <v>427</v>
       </c>
@@ -19453,7 +19454,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="28" t="s">
         <v>434</v>
       </c>
@@ -19492,7 +19493,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="28" t="s">
         <v>438</v>
       </c>
@@ -19557,7 +19558,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="29" t="s">
         <v>445</v>
       </c>
@@ -19609,7 +19610,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="29" t="s">
         <v>453</v>
       </c>
@@ -19661,7 +19662,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="29" t="s">
         <v>461</v>
       </c>
@@ -19752,7 +19753,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="29" t="s">
         <v>475</v>
       </c>
@@ -19817,7 +19818,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="29" t="s">
         <v>485</v>
       </c>
@@ -19908,7 +19909,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="29" t="s">
         <v>498</v>
       </c>
@@ -19947,7 +19948,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="28" t="s">
         <v>504</v>
       </c>
@@ -19999,7 +20000,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="28" t="s">
         <v>512</v>
       </c>
@@ -20064,7 +20065,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="28" t="s">
         <v>521</v>
       </c>
@@ -20090,7 +20091,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="28" t="s">
         <v>524</v>
       </c>
@@ -20168,7 +20169,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="48" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" s="48" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="46" t="s">
         <v>1513</v>
       </c>
@@ -20184,7 +20185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="29" t="s">
         <v>535</v>
       </c>
@@ -20236,7 +20237,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="29" t="s">
         <v>542</v>
       </c>
@@ -20262,7 +20263,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="48" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" s="48" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="46" t="s">
         <v>1515</v>
       </c>
@@ -20278,7 +20279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="26" t="s">
         <v>545</v>
       </c>
@@ -20304,7 +20305,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="26" t="s">
         <v>548</v>
       </c>
@@ -20356,7 +20357,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="26" t="s">
         <v>1309</v>
       </c>
@@ -20382,7 +20383,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="48" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" s="48" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="46" t="s">
         <v>1522</v>
       </c>
@@ -20398,7 +20399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="26" t="s">
         <v>556</v>
       </c>
@@ -20437,7 +20438,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="29" t="s">
         <v>1315</v>
       </c>
@@ -20515,7 +20516,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="48" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" s="48" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="46" t="s">
         <v>1529</v>
       </c>
@@ -20531,7 +20532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="28" t="s">
         <v>568</v>
       </c>
@@ -20583,7 +20584,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="28" t="s">
         <v>572</v>
       </c>
@@ -20700,7 +20701,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="28" t="s">
         <v>587</v>
       </c>
@@ -20830,7 +20831,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="185" spans="1:6" s="48" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" s="48" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="46" t="s">
         <v>1524</v>
       </c>
@@ -20846,7 +20847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="28" t="s">
         <v>606</v>
       </c>
@@ -20924,7 +20925,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="28" t="s">
         <v>618</v>
       </c>
@@ -20963,7 +20964,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="28" t="s">
         <v>624</v>
       </c>
@@ -21002,7 +21003,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="28" t="s">
         <v>629</v>
       </c>
@@ -21041,7 +21042,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="48" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" s="48" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="46" t="s">
         <v>1526</v>
       </c>
@@ -21057,7 +21058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="28" t="s">
         <v>635</v>
       </c>
@@ -21096,7 +21097,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="29" t="s">
         <v>641</v>
       </c>
@@ -21135,7 +21136,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="48" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" s="48" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="46" t="s">
         <v>1527</v>
       </c>
@@ -21151,7 +21152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="28" t="s">
         <v>647</v>
       </c>
@@ -21190,7 +21191,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="28" t="s">
         <v>653</v>
       </c>
@@ -21229,7 +21230,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="28" t="s">
         <v>659</v>
       </c>
@@ -21268,7 +21269,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="28" t="s">
         <v>665</v>
       </c>
@@ -21307,7 +21308,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="28" t="s">
         <v>671</v>
       </c>
@@ -21333,7 +21334,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="28" t="s">
         <v>674</v>
       </c>
@@ -21372,7 +21373,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="226" spans="1:6" s="48" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6" s="48" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="46" t="s">
         <v>1528</v>
       </c>
@@ -21388,7 +21389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="28" t="s">
         <v>679</v>
       </c>
@@ -21440,7 +21441,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="28" t="s">
         <v>687</v>
       </c>
@@ -21492,7 +21493,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235" s="28" t="s">
         <v>695</v>
       </c>
@@ -21531,7 +21532,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="238" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238" s="46" t="s">
         <v>1531</v>
       </c>
@@ -21547,7 +21548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239" s="28" t="s">
         <v>699</v>
       </c>
@@ -21586,7 +21587,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242" s="28" t="s">
         <v>1410</v>
       </c>
@@ -21651,7 +21652,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="247" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247" s="46" t="s">
         <v>1532</v>
       </c>
@@ -21667,7 +21668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248" s="28" t="s">
         <v>1416</v>
       </c>
@@ -21706,7 +21707,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A251" s="28" t="s">
         <v>1419</v>
       </c>
@@ -21784,7 +21785,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A257" s="28" t="s">
         <v>716</v>
       </c>
@@ -21823,7 +21824,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260" s="28" t="s">
         <v>1431</v>
       </c>
@@ -21888,7 +21889,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="265" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:6" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265" s="46" t="s">
         <v>1534</v>
       </c>
@@ -21904,7 +21905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266" s="28" t="s">
         <v>1437</v>
       </c>
@@ -21956,7 +21957,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270" s="28" t="s">
         <v>1441</v>
       </c>
@@ -22021,7 +22022,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="275" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275" s="46" t="s">
         <v>1535</v>
       </c>
@@ -22037,7 +22038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A276" s="28" t="s">
         <v>737</v>
       </c>
@@ -22115,7 +22116,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="282" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282" s="46" t="s">
         <v>1536</v>
       </c>
@@ -22131,7 +22132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283" s="28" t="s">
         <v>746</v>
       </c>
@@ -22235,7 +22236,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="291" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:6" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291" s="46" t="s">
         <v>1538</v>
       </c>
@@ -22251,7 +22252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292" s="28" t="s">
         <v>762</v>
       </c>
@@ -22316,7 +22317,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="297" spans="1:6" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:6" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297" s="28" t="s">
         <v>1539</v>
       </c>
@@ -22355,7 +22356,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="300" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:6" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A300" s="46" t="s">
         <v>1541</v>
       </c>
@@ -22371,7 +22372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301" s="28" t="s">
         <v>776</v>
       </c>
@@ -22410,7 +22411,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304" s="28" t="s">
         <v>782</v>
       </c>
@@ -22449,7 +22450,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="307" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:6" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A307" s="46" t="s">
         <v>1543</v>
       </c>
@@ -22465,7 +22466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308" s="28" t="s">
         <v>788</v>
       </c>
@@ -22517,7 +22518,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A312" s="28" t="s">
         <v>796</v>
       </c>
@@ -22569,7 +22570,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A316" s="28" t="s">
         <v>804</v>
       </c>
@@ -22608,7 +22609,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="319" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:6" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A319" s="46" t="s">
         <v>1545</v>
       </c>
@@ -22625,7 +22626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A320" s="31" t="s">
         <v>810</v>
       </c>
@@ -22651,7 +22652,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A322" s="24" t="s">
         <v>813</v>
       </c>
@@ -22690,7 +22691,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="325" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:6" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A325" s="46" t="s">
         <v>1546</v>
       </c>
@@ -22706,7 +22707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A326" s="24" t="s">
         <v>819</v>
       </c>
@@ -22733,7 +22734,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E327"/>
+  <autoFilter ref="A2:E327">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>

--- a/data/2017년 상반기 지역별고용조사 설계서 및 코드집(mdis제공용).xlsx
+++ b/data/2017년 상반기 지역별고용조사 설계서 및 코드집(mdis제공용).xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="2062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="2062">
   <si>
     <t>작업여건(시간, 보수등) 불만족</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -22753,11 +22753,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B150" sqref="B150:B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22807,7 +22808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>834</v>
       </c>
@@ -22824,7 +22825,9 @@
       <c r="A5" s="32" t="s">
         <v>1185</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38" t="s">
         <v>1185</v>
@@ -22837,7 +22840,9 @@
       <c r="A6" s="32" t="s">
         <v>1187</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38" t="s">
         <v>1187</v>
@@ -22846,7 +22851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
         <v>835</v>
       </c>
@@ -22863,7 +22868,9 @@
       <c r="A8" s="32" t="s">
         <v>1188</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38" t="s">
         <v>1188</v>
@@ -22872,7 +22879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
         <v>840</v>
       </c>
@@ -22889,7 +22896,9 @@
       <c r="A10" s="32" t="s">
         <v>1189</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="38"/>
       <c r="D10" s="38" t="s">
         <v>1189</v>
@@ -22902,7 +22911,9 @@
       <c r="A11" s="32" t="s">
         <v>1190</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38" t="s">
         <v>1190</v>
@@ -22915,7 +22926,9 @@
       <c r="A12" s="32" t="s">
         <v>1191</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="C12" s="38"/>
       <c r="D12" s="38" t="s">
         <v>1191</v>
@@ -22928,7 +22941,9 @@
       <c r="A13" s="32" t="s">
         <v>1192</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="C13" s="38"/>
       <c r="D13" s="38" t="s">
         <v>1192</v>
@@ -22941,7 +22956,9 @@
       <c r="A14" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38" t="s">
         <v>17</v>
@@ -22954,7 +22971,9 @@
       <c r="A15" s="32" t="s">
         <v>1193</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38" t="s">
         <v>1193</v>
@@ -22963,7 +22982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="32" t="s">
         <v>841</v>
       </c>
@@ -22980,7 +22999,9 @@
       <c r="A17" s="32" t="s">
         <v>1194</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38" t="s">
         <v>1194</v>
@@ -22993,7 +23014,9 @@
       <c r="A18" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38" t="s">
         <v>22</v>
@@ -23002,7 +23025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="32" t="s">
         <v>1198</v>
       </c>
@@ -23019,7 +23042,9 @@
       <c r="A20" s="32" t="s">
         <v>1199</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38" t="s">
         <v>1199</v>
@@ -23032,7 +23057,9 @@
       <c r="A21" s="32" t="s">
         <v>1200</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38" t="s">
         <v>1200</v>
@@ -23045,7 +23072,9 @@
       <c r="A22" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="38"/>
+      <c r="B22" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38" t="s">
         <v>27</v>
@@ -23058,7 +23087,9 @@
       <c r="A23" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="38"/>
+      <c r="B23" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="C23" s="38"/>
       <c r="D23" s="38" t="s">
         <v>29</v>
@@ -23080,7 +23111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="32" t="s">
         <v>1227</v>
       </c>
@@ -23097,7 +23128,9 @@
       <c r="A26" s="32" t="s">
         <v>1229</v>
       </c>
-      <c r="B26" s="38"/>
+      <c r="B26" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C26" s="38"/>
       <c r="D26" s="38" t="s">
         <v>1229</v>
@@ -23110,7 +23143,9 @@
       <c r="A27" s="32" t="s">
         <v>1230</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38" t="s">
         <v>1230</v>
@@ -23123,7 +23158,9 @@
       <c r="A28" s="32" t="s">
         <v>1231</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C28" s="38"/>
       <c r="D28" s="38" t="s">
         <v>1231</v>
@@ -23132,7 +23169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="32" t="s">
         <v>1232</v>
       </c>
@@ -23149,7 +23186,9 @@
       <c r="A30" s="32" t="s">
         <v>1234</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38" t="s">
         <v>1234</v>
@@ -23162,7 +23201,9 @@
       <c r="A31" s="32" t="s">
         <v>1236</v>
       </c>
-      <c r="B31" s="38"/>
+      <c r="B31" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38" t="s">
         <v>1236</v>
@@ -23175,7 +23216,9 @@
       <c r="A32" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="38"/>
+      <c r="B32" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38" t="s">
         <v>40</v>
@@ -23188,7 +23231,9 @@
       <c r="A33" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="38"/>
+      <c r="B33" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C33" s="38"/>
       <c r="D33" s="38" t="s">
         <v>42</v>
@@ -23197,7 +23242,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>1237</v>
       </c>
@@ -23214,7 +23259,9 @@
       <c r="A35" s="32" t="s">
         <v>1239</v>
       </c>
-      <c r="B35" s="38"/>
+      <c r="B35" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C35" s="38"/>
       <c r="D35" s="38" t="s">
         <v>1239</v>
@@ -23227,7 +23274,9 @@
       <c r="A36" s="32" t="s">
         <v>1240</v>
       </c>
-      <c r="B36" s="38"/>
+      <c r="B36" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C36" s="38"/>
       <c r="D36" s="38" t="s">
         <v>1240</v>
@@ -23240,7 +23289,9 @@
       <c r="A37" s="32" t="s">
         <v>1241</v>
       </c>
-      <c r="B37" s="38"/>
+      <c r="B37" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C37" s="38"/>
       <c r="D37" s="38" t="s">
         <v>1241</v>
@@ -23253,7 +23304,9 @@
       <c r="A38" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="38"/>
+      <c r="B38" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C38" s="38"/>
       <c r="D38" s="38" t="s">
         <v>48</v>
@@ -23266,7 +23319,9 @@
       <c r="A39" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="38"/>
+      <c r="B39" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C39" s="38"/>
       <c r="D39" s="38" t="s">
         <v>50</v>
@@ -23279,7 +23334,9 @@
       <c r="A40" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="38"/>
+      <c r="B40" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C40" s="38"/>
       <c r="D40" s="38" t="s">
         <v>52</v>
@@ -23292,7 +23349,9 @@
       <c r="A41" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C41" s="38"/>
       <c r="D41" s="38" t="s">
         <v>54</v>
@@ -23305,7 +23364,9 @@
       <c r="A42" s="32" t="s">
         <v>1243</v>
       </c>
-      <c r="B42" s="38"/>
+      <c r="B42" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C42" s="38"/>
       <c r="D42" s="38" t="s">
         <v>1243</v>
@@ -23314,7 +23375,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
         <v>1245</v>
       </c>
@@ -23331,7 +23392,9 @@
       <c r="A44" s="32" t="s">
         <v>1246</v>
       </c>
-      <c r="B44" s="38"/>
+      <c r="B44" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C44" s="38"/>
       <c r="D44" s="38" t="s">
         <v>1246</v>
@@ -23344,7 +23407,9 @@
       <c r="A45" s="32" t="s">
         <v>1247</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C45" s="38"/>
       <c r="D45" s="38" t="s">
         <v>1247</v>
@@ -23357,7 +23422,9 @@
       <c r="A46" s="32" t="s">
         <v>1248</v>
       </c>
-      <c r="B46" s="38"/>
+      <c r="B46" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C46" s="38"/>
       <c r="D46" s="38" t="s">
         <v>1248</v>
@@ -23370,7 +23437,9 @@
       <c r="A47" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="38"/>
+      <c r="B47" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C47" s="38"/>
       <c r="D47" s="38" t="s">
         <v>61</v>
@@ -23383,7 +23452,9 @@
       <c r="A48" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="38"/>
+      <c r="B48" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C48" s="38"/>
       <c r="D48" s="38" t="s">
         <v>63</v>
@@ -23396,7 +23467,9 @@
       <c r="A49" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C49" s="38"/>
       <c r="D49" s="38" t="s">
         <v>65</v>
@@ -23409,7 +23482,9 @@
       <c r="A50" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="38"/>
+      <c r="B50" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C50" s="38"/>
       <c r="D50" s="38" t="s">
         <v>67</v>
@@ -23422,7 +23497,9 @@
       <c r="A51" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="38"/>
+      <c r="B51" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C51" s="38"/>
       <c r="D51" s="38" t="s">
         <v>69</v>
@@ -23431,7 +23508,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="32" t="s">
         <v>1249</v>
       </c>
@@ -23448,7 +23525,9 @@
       <c r="A53" s="32" t="s">
         <v>1250</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C53" s="38"/>
       <c r="D53" s="38" t="s">
         <v>1250</v>
@@ -23461,7 +23540,9 @@
       <c r="A54" s="32" t="s">
         <v>1251</v>
       </c>
-      <c r="B54" s="38"/>
+      <c r="B54" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C54" s="38"/>
       <c r="D54" s="38" t="s">
         <v>1251</v>
@@ -23474,7 +23555,9 @@
       <c r="A55" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="38"/>
+      <c r="B55" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C55" s="38"/>
       <c r="D55" s="38" t="s">
         <v>74</v>
@@ -23487,7 +23570,9 @@
       <c r="A56" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="38"/>
+      <c r="B56" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C56" s="38"/>
       <c r="D56" s="38" t="s">
         <v>76</v>
@@ -23500,7 +23585,9 @@
       <c r="A57" s="32" t="s">
         <v>1252</v>
       </c>
-      <c r="B57" s="38"/>
+      <c r="B57" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C57" s="38"/>
       <c r="D57" s="38" t="s">
         <v>1252</v>
@@ -23509,7 +23596,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="32" t="s">
         <v>1253</v>
       </c>
@@ -23526,7 +23613,9 @@
       <c r="A59" s="32" t="s">
         <v>1254</v>
       </c>
-      <c r="B59" s="38"/>
+      <c r="B59" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C59" s="38"/>
       <c r="D59" s="38" t="s">
         <v>1254</v>
@@ -23539,7 +23628,9 @@
       <c r="A60" s="32" t="s">
         <v>1255</v>
       </c>
-      <c r="B60" s="38"/>
+      <c r="B60" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C60" s="38"/>
       <c r="D60" s="38" t="s">
         <v>1255</v>
@@ -23548,7 +23639,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="32" t="s">
         <v>1260</v>
       </c>
@@ -23565,7 +23656,9 @@
       <c r="A62" s="32" t="s">
         <v>1261</v>
       </c>
-      <c r="B62" s="38"/>
+      <c r="B62" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C62" s="38"/>
       <c r="D62" s="38" t="s">
         <v>1261</v>
@@ -23578,7 +23671,9 @@
       <c r="A63" s="32" t="s">
         <v>1262</v>
       </c>
-      <c r="B63" s="38"/>
+      <c r="B63" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C63" s="38"/>
       <c r="D63" s="38" t="s">
         <v>1262</v>
@@ -23591,7 +23686,9 @@
       <c r="A64" s="32" t="s">
         <v>1263</v>
       </c>
-      <c r="B64" s="38"/>
+      <c r="B64" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C64" s="38"/>
       <c r="D64" s="38" t="s">
         <v>1263</v>
@@ -23604,7 +23701,9 @@
       <c r="A65" s="32" t="s">
         <v>1264</v>
       </c>
-      <c r="B65" s="38"/>
+      <c r="B65" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C65" s="38"/>
       <c r="D65" s="38" t="s">
         <v>1264</v>
@@ -23613,7 +23712,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="32" t="s">
         <v>1265</v>
       </c>
@@ -23630,7 +23729,9 @@
       <c r="A67" s="32" t="s">
         <v>1266</v>
       </c>
-      <c r="B67" s="38"/>
+      <c r="B67" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C67" s="38"/>
       <c r="D67" s="38" t="s">
         <v>1266</v>
@@ -23643,7 +23744,9 @@
       <c r="A68" s="32" t="s">
         <v>1267</v>
       </c>
-      <c r="B68" s="38"/>
+      <c r="B68" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C68" s="38"/>
       <c r="D68" s="38" t="s">
         <v>1267</v>
@@ -23656,7 +23759,9 @@
       <c r="A69" s="32" t="s">
         <v>1268</v>
       </c>
-      <c r="B69" s="38"/>
+      <c r="B69" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C69" s="38"/>
       <c r="D69" s="38" t="s">
         <v>1268</v>
@@ -23669,7 +23774,9 @@
       <c r="A70" s="32" t="s">
         <v>1270</v>
       </c>
-      <c r="B70" s="38"/>
+      <c r="B70" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C70" s="38"/>
       <c r="D70" s="38" t="s">
         <v>1270</v>
@@ -23682,7 +23789,9 @@
       <c r="A71" s="32" t="s">
         <v>1271</v>
       </c>
-      <c r="B71" s="38"/>
+      <c r="B71" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C71" s="38"/>
       <c r="D71" s="38" t="s">
         <v>1271</v>
@@ -23695,7 +23804,9 @@
       <c r="A72" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="38"/>
+      <c r="B72" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C72" s="38"/>
       <c r="D72" s="38" t="s">
         <v>93</v>
@@ -23708,7 +23819,9 @@
       <c r="A73" s="32" t="s">
         <v>1272</v>
       </c>
-      <c r="B73" s="38"/>
+      <c r="B73" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="C73" s="38"/>
       <c r="D73" s="38" t="s">
         <v>1272</v>
@@ -23730,7 +23843,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="32" t="s">
         <v>1280</v>
       </c>
@@ -23747,7 +23860,9 @@
       <c r="A76" s="32" t="s">
         <v>1281</v>
       </c>
-      <c r="B76" s="38"/>
+      <c r="B76" s="54" t="s">
+        <v>96</v>
+      </c>
       <c r="C76" s="38"/>
       <c r="D76" s="38" t="s">
         <v>1281</v>
@@ -23760,7 +23875,9 @@
       <c r="A77" s="32" t="s">
         <v>1282</v>
       </c>
-      <c r="B77" s="38"/>
+      <c r="B77" s="54" t="s">
+        <v>96</v>
+      </c>
       <c r="C77" s="38"/>
       <c r="D77" s="38" t="s">
         <v>1282</v>
@@ -23773,7 +23890,9 @@
       <c r="A78" s="32" t="s">
         <v>1283</v>
       </c>
-      <c r="B78" s="38"/>
+      <c r="B78" s="54" t="s">
+        <v>96</v>
+      </c>
       <c r="C78" s="38"/>
       <c r="D78" s="38" t="s">
         <v>1283</v>
@@ -23786,7 +23905,9 @@
       <c r="A79" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B79" s="38"/>
+      <c r="B79" s="54" t="s">
+        <v>96</v>
+      </c>
       <c r="C79" s="38"/>
       <c r="D79" s="38" t="s">
         <v>102</v>
@@ -23795,7 +23916,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="32" t="s">
         <v>1286</v>
       </c>
@@ -23812,7 +23933,9 @@
       <c r="A81" s="32" t="s">
         <v>1287</v>
       </c>
-      <c r="B81" s="38"/>
+      <c r="B81" s="54" t="s">
+        <v>96</v>
+      </c>
       <c r="C81" s="38"/>
       <c r="D81" s="38" t="s">
         <v>1287</v>
@@ -23821,7 +23944,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="32" t="s">
         <v>1288</v>
       </c>
@@ -23838,7 +23961,9 @@
       <c r="A83" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B83" s="38"/>
+      <c r="B83" s="54" t="s">
+        <v>96</v>
+      </c>
       <c r="C83" s="38"/>
       <c r="D83" s="38" t="s">
         <v>107</v>
@@ -23847,7 +23972,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="32" t="s">
         <v>1309</v>
       </c>
@@ -23864,7 +23989,9 @@
       <c r="A85" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B85" s="38"/>
+      <c r="B85" s="54" t="s">
+        <v>96</v>
+      </c>
       <c r="C85" s="38"/>
       <c r="D85" s="38" t="s">
         <v>110</v>
@@ -23877,7 +24004,9 @@
       <c r="A86" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B86" s="38"/>
+      <c r="B86" s="54" t="s">
+        <v>96</v>
+      </c>
       <c r="C86" s="38"/>
       <c r="D86" s="38" t="s">
         <v>112</v>
@@ -23890,7 +24019,9 @@
       <c r="A87" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B87" s="38"/>
+      <c r="B87" s="54" t="s">
+        <v>96</v>
+      </c>
       <c r="C87" s="38"/>
       <c r="D87" s="38" t="s">
         <v>114</v>
@@ -23912,7 +24043,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="32" t="s">
         <v>1312</v>
       </c>
@@ -23929,7 +24060,9 @@
       <c r="A90" s="32" t="s">
         <v>1313</v>
       </c>
-      <c r="B90" s="38"/>
+      <c r="B90" s="54" t="s">
+        <v>115</v>
+      </c>
       <c r="C90" s="38"/>
       <c r="D90" s="38" t="s">
         <v>1313</v>
@@ -23942,7 +24075,9 @@
       <c r="A91" s="32" t="s">
         <v>1314</v>
       </c>
-      <c r="B91" s="38"/>
+      <c r="B91" s="54" t="s">
+        <v>115</v>
+      </c>
       <c r="C91" s="38"/>
       <c r="D91" s="38" t="s">
         <v>1314</v>
@@ -23951,7 +24086,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="32" t="s">
         <v>1315</v>
       </c>
@@ -23968,7 +24103,9 @@
       <c r="A93" s="32" t="s">
         <v>1316</v>
       </c>
-      <c r="B93" s="38"/>
+      <c r="B93" s="54" t="s">
+        <v>115</v>
+      </c>
       <c r="C93" s="38"/>
       <c r="D93" s="38" t="s">
         <v>1316</v>
@@ -23981,7 +24118,9 @@
       <c r="A94" s="32" t="s">
         <v>1317</v>
       </c>
-      <c r="B94" s="38"/>
+      <c r="B94" s="54" t="s">
+        <v>115</v>
+      </c>
       <c r="C94" s="38"/>
       <c r="D94" s="38" t="s">
         <v>1317</v>
@@ -23994,7 +24133,9 @@
       <c r="A95" s="32" t="s">
         <v>1318</v>
       </c>
-      <c r="B95" s="38"/>
+      <c r="B95" s="54" t="s">
+        <v>115</v>
+      </c>
       <c r="C95" s="38"/>
       <c r="D95" s="38" t="s">
         <v>1318</v>
@@ -24007,7 +24148,9 @@
       <c r="A96" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B96" s="38"/>
+      <c r="B96" s="54" t="s">
+        <v>115</v>
+      </c>
       <c r="C96" s="38"/>
       <c r="D96" s="38" t="s">
         <v>124</v>
@@ -24016,7 +24159,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="32" t="s">
         <v>126</v>
       </c>
@@ -24033,7 +24176,9 @@
       <c r="A98" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="B98" s="38"/>
+      <c r="B98" s="54" t="s">
+        <v>115</v>
+      </c>
       <c r="C98" s="38"/>
       <c r="D98" s="38" t="s">
         <v>128</v>
@@ -24046,7 +24191,9 @@
       <c r="A99" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="B99" s="38"/>
+      <c r="B99" s="54" t="s">
+        <v>115</v>
+      </c>
       <c r="C99" s="38"/>
       <c r="D99" s="38" t="s">
         <v>130</v>
@@ -24055,7 +24202,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="32" t="s">
         <v>132</v>
       </c>
@@ -24072,7 +24219,9 @@
       <c r="A101" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="38"/>
+      <c r="B101" s="54" t="s">
+        <v>115</v>
+      </c>
       <c r="C101" s="38"/>
       <c r="D101" s="38" t="s">
         <v>134</v>
@@ -24085,7 +24234,9 @@
       <c r="A102" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B102" s="38"/>
+      <c r="B102" s="54" t="s">
+        <v>115</v>
+      </c>
       <c r="C102" s="38"/>
       <c r="D102" s="38" t="s">
         <v>136</v>
@@ -24107,7 +24258,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="32" t="s">
         <v>1359</v>
       </c>
@@ -24124,7 +24275,9 @@
       <c r="A105" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="B105" s="38"/>
+      <c r="B105" s="54" t="s">
+        <v>138</v>
+      </c>
       <c r="C105" s="38"/>
       <c r="D105" s="38" t="s">
         <v>141</v>
@@ -24133,7 +24286,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="32" t="s">
         <v>1363</v>
       </c>
@@ -24150,7 +24303,9 @@
       <c r="A107" s="32" t="s">
         <v>1364</v>
       </c>
-      <c r="B107" s="38"/>
+      <c r="B107" s="54" t="s">
+        <v>138</v>
+      </c>
       <c r="C107" s="38"/>
       <c r="D107" s="38" t="s">
         <v>1364</v>
@@ -24163,7 +24318,9 @@
       <c r="A108" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="B108" s="38"/>
+      <c r="B108" s="54" t="s">
+        <v>138</v>
+      </c>
       <c r="C108" s="38"/>
       <c r="D108" s="38" t="s">
         <v>145</v>
@@ -24172,7 +24329,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="32" t="s">
         <v>147</v>
       </c>
@@ -24189,7 +24346,9 @@
       <c r="A110" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="B110" s="38"/>
+      <c r="B110" s="54" t="s">
+        <v>138</v>
+      </c>
       <c r="C110" s="38"/>
       <c r="D110" s="38" t="s">
         <v>149</v>
@@ -24211,7 +24370,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="32" t="s">
         <v>1383</v>
       </c>
@@ -24228,7 +24387,9 @@
       <c r="A113" s="32" t="s">
         <v>1384</v>
       </c>
-      <c r="B113" s="38"/>
+      <c r="B113" s="54" t="s">
+        <v>151</v>
+      </c>
       <c r="C113" s="38"/>
       <c r="D113" s="38" t="s">
         <v>1384</v>
@@ -24241,7 +24402,9 @@
       <c r="A114" s="32" t="s">
         <v>1385</v>
       </c>
-      <c r="B114" s="38"/>
+      <c r="B114" s="54" t="s">
+        <v>151</v>
+      </c>
       <c r="C114" s="38"/>
       <c r="D114" s="38" t="s">
         <v>1385</v>
@@ -24254,7 +24417,9 @@
       <c r="A115" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B115" s="38"/>
+      <c r="B115" s="54" t="s">
+        <v>151</v>
+      </c>
       <c r="C115" s="38"/>
       <c r="D115" s="38" t="s">
         <v>156</v>
@@ -24263,7 +24428,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="32" t="s">
         <v>1386</v>
       </c>
@@ -24280,7 +24445,9 @@
       <c r="A117" s="32" t="s">
         <v>1387</v>
       </c>
-      <c r="B117" s="38"/>
+      <c r="B117" s="54" t="s">
+        <v>151</v>
+      </c>
       <c r="C117" s="38"/>
       <c r="D117" s="38" t="s">
         <v>1387</v>
@@ -24289,7 +24456,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="32" t="s">
         <v>1388</v>
       </c>
@@ -24306,7 +24473,9 @@
       <c r="A119" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="B119" s="38"/>
+      <c r="B119" s="54" t="s">
+        <v>151</v>
+      </c>
       <c r="C119" s="38"/>
       <c r="D119" s="38" t="s">
         <v>161</v>
@@ -24328,7 +24497,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="32" t="s">
         <v>1419</v>
       </c>
@@ -24345,7 +24514,9 @@
       <c r="A122" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="B122" s="38"/>
+      <c r="B122" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C122" s="38"/>
       <c r="D122" s="38" t="s">
         <v>166</v>
@@ -24354,7 +24525,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="32" t="s">
         <v>1428</v>
       </c>
@@ -24371,7 +24542,9 @@
       <c r="A124" s="32" t="s">
         <v>1429</v>
       </c>
-      <c r="B124" s="38"/>
+      <c r="B124" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C124" s="38"/>
       <c r="D124" s="38" t="s">
         <v>1429</v>
@@ -24384,7 +24557,9 @@
       <c r="A125" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="B125" s="38"/>
+      <c r="B125" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C125" s="38"/>
       <c r="D125" s="38" t="s">
         <v>170</v>
@@ -24393,7 +24568,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="32" t="s">
         <v>1431</v>
       </c>
@@ -24410,7 +24585,9 @@
       <c r="A127" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B127" s="38"/>
+      <c r="B127" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C127" s="38"/>
       <c r="D127" s="38" t="s">
         <v>173</v>
@@ -24419,7 +24596,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="32" t="s">
         <v>1437</v>
       </c>
@@ -24436,7 +24613,9 @@
       <c r="A129" s="32" t="s">
         <v>1438</v>
       </c>
-      <c r="B129" s="38"/>
+      <c r="B129" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C129" s="38"/>
       <c r="D129" s="38" t="s">
         <v>1438</v>
@@ -24449,7 +24628,9 @@
       <c r="A130" s="32" t="s">
         <v>1439</v>
       </c>
-      <c r="B130" s="38"/>
+      <c r="B130" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C130" s="38"/>
       <c r="D130" s="38" t="s">
         <v>1439</v>
@@ -24462,7 +24643,9 @@
       <c r="A131" s="32" t="s">
         <v>1440</v>
       </c>
-      <c r="B131" s="38"/>
+      <c r="B131" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C131" s="38"/>
       <c r="D131" s="38" t="s">
         <v>1440</v>
@@ -24471,7 +24654,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="32" t="s">
         <v>1441</v>
       </c>
@@ -24488,7 +24671,9 @@
       <c r="A133" s="32" t="s">
         <v>1442</v>
       </c>
-      <c r="B133" s="38"/>
+      <c r="B133" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C133" s="38"/>
       <c r="D133" s="38" t="s">
         <v>1442</v>
@@ -24501,7 +24686,9 @@
       <c r="A134" s="32" t="s">
         <v>1443</v>
       </c>
-      <c r="B134" s="38"/>
+      <c r="B134" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C134" s="38"/>
       <c r="D134" s="38" t="s">
         <v>1443</v>
@@ -24514,7 +24701,9 @@
       <c r="A135" s="32" t="s">
         <v>1444</v>
       </c>
-      <c r="B135" s="38"/>
+      <c r="B135" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C135" s="38"/>
       <c r="D135" s="38" t="s">
         <v>1444</v>
@@ -24523,7 +24712,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="32" t="s">
         <v>183</v>
       </c>
@@ -24540,7 +24729,9 @@
       <c r="A137" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="B137" s="38"/>
+      <c r="B137" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C137" s="38"/>
       <c r="D137" s="38" t="s">
         <v>185</v>
@@ -24553,7 +24744,9 @@
       <c r="A138" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="B138" s="38"/>
+      <c r="B138" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C138" s="38"/>
       <c r="D138" s="38" t="s">
         <v>187</v>
@@ -24562,7 +24755,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="32" t="s">
         <v>189</v>
       </c>
@@ -24579,7 +24772,9 @@
       <c r="A140" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="B140" s="38"/>
+      <c r="B140" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C140" s="38"/>
       <c r="D140" s="38" t="s">
         <v>191</v>
@@ -24592,7 +24787,9 @@
       <c r="A141" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="B141" s="38"/>
+      <c r="B141" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C141" s="38"/>
       <c r="D141" s="38" t="s">
         <v>193</v>
@@ -24605,7 +24802,9 @@
       <c r="A142" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="B142" s="38"/>
+      <c r="B142" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C142" s="38"/>
       <c r="D142" s="38" t="s">
         <v>195</v>
@@ -24618,7 +24817,9 @@
       <c r="A143" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="B143" s="38"/>
+      <c r="B143" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C143" s="38"/>
       <c r="D143" s="38" t="s">
         <v>197</v>
@@ -24627,7 +24828,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="32" t="s">
         <v>199</v>
       </c>
@@ -24644,7 +24845,9 @@
       <c r="A145" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="B145" s="38"/>
+      <c r="B145" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C145" s="38"/>
       <c r="D145" s="38" t="s">
         <v>201</v>
@@ -24653,7 +24856,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="32" t="s">
         <v>203</v>
       </c>
@@ -24670,7 +24873,9 @@
       <c r="A147" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="B147" s="38"/>
+      <c r="B147" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C147" s="38"/>
       <c r="D147" s="38" t="s">
         <v>205</v>
@@ -24683,7 +24888,9 @@
       <c r="A148" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="B148" s="38"/>
+      <c r="B148" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C148" s="38"/>
       <c r="D148" s="38" t="s">
         <v>207</v>
@@ -24696,7 +24903,9 @@
       <c r="A149" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="B149" s="38"/>
+      <c r="B149" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="C149" s="38"/>
       <c r="D149" s="38" t="s">
         <v>209</v>
@@ -24718,7 +24927,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="32" t="s">
         <v>213</v>
       </c>
@@ -24735,7 +24944,9 @@
       <c r="A152" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="B152" s="38"/>
+      <c r="B152" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C152" s="38"/>
       <c r="D152" s="38" t="s">
         <v>215</v>
@@ -24748,7 +24959,9 @@
       <c r="A153" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="B153" s="38"/>
+      <c r="B153" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C153" s="38"/>
       <c r="D153" s="38" t="s">
         <v>217</v>
@@ -24761,7 +24974,9 @@
       <c r="A154" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="B154" s="38"/>
+      <c r="B154" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C154" s="38"/>
       <c r="D154" s="38" t="s">
         <v>219</v>
@@ -24770,7 +24985,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="32" t="s">
         <v>221</v>
       </c>
@@ -24787,7 +25002,9 @@
       <c r="A156" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="B156" s="38"/>
+      <c r="B156" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C156" s="38"/>
       <c r="D156" s="38" t="s">
         <v>223</v>
@@ -24800,7 +25017,9 @@
       <c r="A157" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="B157" s="38"/>
+      <c r="B157" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C157" s="38"/>
       <c r="D157" s="38" t="s">
         <v>225</v>
@@ -24813,7 +25032,9 @@
       <c r="A158" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="B158" s="38"/>
+      <c r="B158" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C158" s="38"/>
       <c r="D158" s="38" t="s">
         <v>227</v>
@@ -24822,7 +25043,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="32" t="s">
         <v>229</v>
       </c>
@@ -24839,7 +25060,9 @@
       <c r="A160" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="B160" s="38"/>
+      <c r="B160" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C160" s="38"/>
       <c r="D160" s="38" t="s">
         <v>231</v>
@@ -24852,7 +25075,9 @@
       <c r="A161" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="B161" s="38"/>
+      <c r="B161" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C161" s="38"/>
       <c r="D161" s="38" t="s">
         <v>233</v>
@@ -24861,7 +25086,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" s="32" t="s">
         <v>1447</v>
       </c>
@@ -24878,7 +25103,9 @@
       <c r="A163" s="32" t="s">
         <v>1448</v>
       </c>
-      <c r="B163" s="38"/>
+      <c r="B163" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C163" s="38"/>
       <c r="D163" s="38" t="s">
         <v>1448</v>
@@ -24891,7 +25118,9 @@
       <c r="A164" s="32" t="s">
         <v>1450</v>
       </c>
-      <c r="B164" s="38"/>
+      <c r="B164" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C164" s="38"/>
       <c r="D164" s="38" t="s">
         <v>1450</v>
@@ -24904,7 +25133,9 @@
       <c r="A165" s="32" t="s">
         <v>1451</v>
       </c>
-      <c r="B165" s="38"/>
+      <c r="B165" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C165" s="38"/>
       <c r="D165" s="38" t="s">
         <v>1451</v>
@@ -24913,7 +25144,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" s="32" t="s">
         <v>1457</v>
       </c>
@@ -24930,7 +25161,9 @@
       <c r="A167" s="32" t="s">
         <v>1458</v>
       </c>
-      <c r="B167" s="38"/>
+      <c r="B167" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C167" s="38"/>
       <c r="D167" s="38" t="s">
         <v>1458</v>
@@ -24943,7 +25176,9 @@
       <c r="A168" s="32" t="s">
         <v>1459</v>
       </c>
-      <c r="B168" s="38"/>
+      <c r="B168" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C168" s="38"/>
       <c r="D168" s="38" t="s">
         <v>1459</v>
@@ -24956,7 +25191,9 @@
       <c r="A169" s="32" t="s">
         <v>1460</v>
       </c>
-      <c r="B169" s="38"/>
+      <c r="B169" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C169" s="38"/>
       <c r="D169" s="38" t="s">
         <v>1460</v>
@@ -24969,7 +25206,9 @@
       <c r="A170" s="32" t="s">
         <v>1461</v>
       </c>
-      <c r="B170" s="38"/>
+      <c r="B170" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C170" s="38"/>
       <c r="D170" s="38" t="s">
         <v>1461</v>
@@ -24982,7 +25221,9 @@
       <c r="A171" s="32" t="s">
         <v>1462</v>
       </c>
-      <c r="B171" s="38"/>
+      <c r="B171" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C171" s="38"/>
       <c r="D171" s="38" t="s">
         <v>1462</v>
@@ -24991,7 +25232,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172" s="32" t="s">
         <v>1466</v>
       </c>
@@ -25008,7 +25249,9 @@
       <c r="A173" s="32" t="s">
         <v>1467</v>
       </c>
-      <c r="B173" s="38"/>
+      <c r="B173" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C173" s="38"/>
       <c r="D173" s="38" t="s">
         <v>1467</v>
@@ -25021,7 +25264,9 @@
       <c r="A174" s="32" t="s">
         <v>1468</v>
       </c>
-      <c r="B174" s="38"/>
+      <c r="B174" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C174" s="38"/>
       <c r="D174" s="38" t="s">
         <v>1468</v>
@@ -25034,7 +25279,9 @@
       <c r="A175" s="32" t="s">
         <v>1469</v>
       </c>
-      <c r="B175" s="38"/>
+      <c r="B175" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C175" s="38"/>
       <c r="D175" s="38" t="s">
         <v>1469</v>
@@ -25047,7 +25294,9 @@
       <c r="A176" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="B176" s="38"/>
+      <c r="B176" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C176" s="38"/>
       <c r="D176" s="38" t="s">
         <v>249</v>
@@ -25056,7 +25305,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" s="32" t="s">
         <v>1471</v>
       </c>
@@ -25073,7 +25322,9 @@
       <c r="A178" s="32" t="s">
         <v>1472</v>
       </c>
-      <c r="B178" s="38"/>
+      <c r="B178" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C178" s="38"/>
       <c r="D178" s="38" t="s">
         <v>1472</v>
@@ -25086,7 +25337,9 @@
       <c r="A179" s="32" t="s">
         <v>1473</v>
       </c>
-      <c r="B179" s="38"/>
+      <c r="B179" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C179" s="38"/>
       <c r="D179" s="38" t="s">
         <v>1473</v>
@@ -25099,7 +25352,9 @@
       <c r="A180" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="B180" s="38"/>
+      <c r="B180" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C180" s="38"/>
       <c r="D180" s="38" t="s">
         <v>254</v>
@@ -25112,7 +25367,9 @@
       <c r="A181" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="B181" s="38"/>
+      <c r="B181" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C181" s="38"/>
       <c r="D181" s="38" t="s">
         <v>256</v>
@@ -25125,7 +25382,9 @@
       <c r="A182" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="B182" s="38"/>
+      <c r="B182" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C182" s="38"/>
       <c r="D182" s="38" t="s">
         <v>258</v>
@@ -25138,7 +25397,9 @@
       <c r="A183" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B183" s="38"/>
+      <c r="B183" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C183" s="38"/>
       <c r="D183" s="38" t="s">
         <v>260</v>
@@ -25147,7 +25408,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184" s="32" t="s">
         <v>262</v>
       </c>
@@ -25164,7 +25425,9 @@
       <c r="A185" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="B185" s="38"/>
+      <c r="B185" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C185" s="38"/>
       <c r="D185" s="38" t="s">
         <v>264</v>
@@ -25177,7 +25440,9 @@
       <c r="A186" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="B186" s="38"/>
+      <c r="B186" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C186" s="38"/>
       <c r="D186" s="38" t="s">
         <v>266</v>
@@ -25186,7 +25451,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187" s="32" t="s">
         <v>268</v>
       </c>
@@ -25203,7 +25468,9 @@
       <c r="A188" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="B188" s="38"/>
+      <c r="B188" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C188" s="38"/>
       <c r="D188" s="38" t="s">
         <v>270</v>
@@ -25216,7 +25483,9 @@
       <c r="A189" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="B189" s="38"/>
+      <c r="B189" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C189" s="38"/>
       <c r="D189" s="38" t="s">
         <v>272</v>
@@ -25229,7 +25498,9 @@
       <c r="A190" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="B190" s="38"/>
+      <c r="B190" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="C190" s="38"/>
       <c r="D190" s="38" t="s">
         <v>274</v>
@@ -25251,11 +25522,13 @@
         <v>277</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192" s="32" t="s">
         <v>1478</v>
       </c>
-      <c r="B192" s="38"/>
+      <c r="B192" s="54" t="s">
+        <v>276</v>
+      </c>
       <c r="C192" s="38" t="s">
         <v>1478</v>
       </c>
@@ -25268,7 +25541,9 @@
       <c r="A193" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="B193" s="38"/>
+      <c r="B193" s="54" t="s">
+        <v>276</v>
+      </c>
       <c r="C193" s="38"/>
       <c r="D193" s="38" t="s">
         <v>279</v>
@@ -25277,11 +25552,13 @@
         <v>280</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="B194" s="38"/>
+      <c r="B194" s="54" t="s">
+        <v>276</v>
+      </c>
       <c r="C194" s="38" t="s">
         <v>281</v>
       </c>
@@ -25294,7 +25571,9 @@
       <c r="A195" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="B195" s="38"/>
+      <c r="B195" s="54" t="s">
+        <v>276</v>
+      </c>
       <c r="C195" s="38"/>
       <c r="D195" s="38" t="s">
         <v>283</v>
@@ -25307,7 +25586,9 @@
       <c r="A196" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="B196" s="38"/>
+      <c r="B196" s="54" t="s">
+        <v>276</v>
+      </c>
       <c r="C196" s="38"/>
       <c r="D196" s="38" t="s">
         <v>285</v>
@@ -25316,11 +25597,13 @@
         <v>286</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="B197" s="38"/>
+      <c r="B197" s="54" t="s">
+        <v>276</v>
+      </c>
       <c r="C197" s="38" t="s">
         <v>287</v>
       </c>
@@ -25333,7 +25616,9 @@
       <c r="A198" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="B198" s="38"/>
+      <c r="B198" s="54" t="s">
+        <v>276</v>
+      </c>
       <c r="C198" s="38"/>
       <c r="D198" s="38" t="s">
         <v>289</v>
@@ -25342,11 +25627,13 @@
         <v>290</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" s="32" t="s">
         <v>1482</v>
       </c>
-      <c r="B199" s="38"/>
+      <c r="B199" s="54" t="s">
+        <v>276</v>
+      </c>
       <c r="C199" s="38" t="s">
         <v>1482</v>
       </c>
@@ -25359,7 +25646,9 @@
       <c r="A200" s="32" t="s">
         <v>1483</v>
       </c>
-      <c r="B200" s="38"/>
+      <c r="B200" s="54" t="s">
+        <v>276</v>
+      </c>
       <c r="C200" s="38"/>
       <c r="D200" s="38" t="s">
         <v>1483</v>
@@ -25372,7 +25661,9 @@
       <c r="A201" s="32" t="s">
         <v>1484</v>
       </c>
-      <c r="B201" s="38"/>
+      <c r="B201" s="54" t="s">
+        <v>276</v>
+      </c>
       <c r="C201" s="38"/>
       <c r="D201" s="38" t="s">
         <v>1484</v>
@@ -25381,11 +25672,13 @@
         <v>293</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" s="32" t="s">
         <v>1486</v>
       </c>
-      <c r="B202" s="38"/>
+      <c r="B202" s="54" t="s">
+        <v>276</v>
+      </c>
       <c r="C202" s="38" t="s">
         <v>1486</v>
       </c>
@@ -25398,7 +25691,9 @@
       <c r="A203" s="32" t="s">
         <v>1487</v>
       </c>
-      <c r="B203" s="38"/>
+      <c r="B203" s="54" t="s">
+        <v>276</v>
+      </c>
       <c r="C203" s="38"/>
       <c r="D203" s="38" t="s">
         <v>1487</v>
@@ -25411,7 +25706,9 @@
       <c r="A204" s="32" t="s">
         <v>1488</v>
       </c>
-      <c r="B204" s="38"/>
+      <c r="B204" s="54" t="s">
+        <v>276</v>
+      </c>
       <c r="C204" s="38"/>
       <c r="D204" s="38" t="s">
         <v>1488</v>
@@ -25424,7 +25721,9 @@
       <c r="A205" s="32" t="s">
         <v>1489</v>
       </c>
-      <c r="B205" s="38"/>
+      <c r="B205" s="54" t="s">
+        <v>276</v>
+      </c>
       <c r="C205" s="38"/>
       <c r="D205" s="38" t="s">
         <v>1489</v>
@@ -25433,11 +25732,13 @@
         <v>297</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206" s="32" t="s">
         <v>1500</v>
       </c>
-      <c r="B206" s="38"/>
+      <c r="B206" s="54" t="s">
+        <v>276</v>
+      </c>
       <c r="C206" s="38" t="s">
         <v>1500</v>
       </c>
@@ -25450,7 +25751,9 @@
       <c r="A207" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="B207" s="72"/>
+      <c r="B207" s="54" t="s">
+        <v>276</v>
+      </c>
       <c r="C207" s="38"/>
       <c r="D207" s="38" t="s">
         <v>299</v>
@@ -25463,7 +25766,9 @@
       <c r="A208" s="71" t="s">
         <v>301</v>
       </c>
-      <c r="B208" s="72"/>
+      <c r="B208" s="54" t="s">
+        <v>276</v>
+      </c>
       <c r="C208" s="38"/>
       <c r="D208" s="38" t="s">
         <v>301</v>
@@ -25476,7 +25781,9 @@
       <c r="A209" s="71" t="s">
         <v>303</v>
       </c>
-      <c r="B209" s="72"/>
+      <c r="B209" s="54" t="s">
+        <v>276</v>
+      </c>
       <c r="C209" s="38"/>
       <c r="D209" s="38" t="s">
         <v>303</v>
@@ -25498,7 +25805,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" s="71" t="s">
         <v>1571</v>
       </c>
@@ -25543,7 +25850,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E214"/>
+  <autoFilter ref="A2:E214">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
